--- a/data/input/employee_absence_data_10.xlsx
+++ b/data/input/employee_absence_data_10.xlsx
@@ -464,185 +464,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59091</v>
+        <v>81891</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enrico Rocha</t>
+          <t>Sra. Lavínia Almeida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>8632.91</v>
+        <v>5916.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39595</v>
+        <v>98527</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vinicius Martins</t>
+          <t>João Vitor Montenegro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>4393.74</v>
+        <v>6702.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11182</v>
+        <v>3544</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Caroline Alves</t>
+          <t>Yan da Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>9830.83</v>
+        <v>5564.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34334</v>
+        <v>40353</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gael Henrique Lopes</t>
+          <t>Luiz Henrique Macedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>4509.12</v>
+        <v>7391.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70922</v>
+        <v>82836</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Teixeira</t>
+          <t>Dr. Carlos Eduardo Andrade</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>9904.860000000001</v>
+        <v>9871.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40868</v>
+        <v>4751</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Flor Leão</t>
+          <t>Ágatha Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>4651.87</v>
+        <v>3541.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99903</v>
+        <v>56498</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Liz Sá</t>
+          <t>João Felipe Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,31 +652,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45090</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>12188.8</v>
+        <v>8030.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26013</v>
+        <v>59547</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bárbara das Neves</t>
+          <t>Heloisa Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -688,19 +688,19 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>8466.030000000001</v>
+        <v>3918.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16944</v>
+        <v>85339</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Cecília da Cunha</t>
+          <t>Dr. Brayan Cirino</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,46 +710,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45079</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>4310.34</v>
+        <v>7104.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>59190</v>
+        <v>36915</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Alice Monteiro</t>
+          <t>Alana da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>7009.93</v>
+        <v>5779.85</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_10.xlsx
+++ b/data/input/employee_absence_data_10.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81891</v>
+        <v>65455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Lavínia Almeida</t>
+          <t>Isabelly Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,85 +482,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45103</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>5916.7</v>
+        <v>5434.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98527</v>
+        <v>3995</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Vitor Montenegro</t>
+          <t>Lunna Gomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>6702.45</v>
+        <v>2291.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3544</v>
+        <v>12661</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yan da Rocha</t>
+          <t>Igor Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>5564.77</v>
+        <v>4947.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40353</v>
+        <v>1953</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Henrique Macedo</t>
+          <t>Marcos Vinicius Araújo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>7391.76</v>
+        <v>9394.629999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82836</v>
+        <v>78962</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Carlos Eduardo Andrade</t>
+          <t>Maria Isis Pereira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,60 +594,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45081</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>9871.51</v>
+        <v>7159.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4751</v>
+        <v>49747</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ágatha Costa</t>
+          <t>João Guilherme Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45088</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>3541.27</v>
+        <v>3262.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56498</v>
+        <v>60266</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Felipe Costa</t>
+          <t>Marcela Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,27 +656,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>8030.39</v>
+        <v>7508.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59547</v>
+        <v>60615</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Heloisa Peixoto</t>
+          <t>Sr. Luiz Miguel Cirino</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,51 +685,51 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>3918.06</v>
+        <v>5809.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85339</v>
+        <v>70295</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Brayan Cirino</t>
+          <t>Manuella Garcia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45103</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>7104.82</v>
+        <v>4106.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36915</v>
+        <v>28069</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alana da Mota</t>
+          <t>Olívia Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45096</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>5779.85</v>
+        <v>4555.22</v>
       </c>
     </row>
   </sheetData>
